--- a/source.xlsx
+++ b/source.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>one</t>
+    <t>Pin 193</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>four</t>
+    <t>Pin 205</t>
   </si>
 </sst>
 </file>
@@ -360,37 +354,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:C4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
-      <c r="C2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -403,7 +386,6 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -416,6 +398,5 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>